--- a/ScheduleSA405_Fall_AY23.xlsx
+++ b/ScheduleSA405_Fall_AY23.xlsx
@@ -24,6 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'Schedule MWF'!$2:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">'Schedule MWF'!$2:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">'Schedule MWF'!$2:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">'Schedule MWF'!$2:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">'Schedule TR'!$2:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">'Schedule TR'!$2:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Schedule TR'!$2:$2</definedName>
@@ -32,6 +33,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'Schedule TR'!$2:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">'Schedule TR'!$2:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">'Schedule TR'!$2:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">'Schedule TR'!$2:$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -108,7 +110,7 @@
     <t xml:space="preserve">Lesson 5 Fixed Charge</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab 2: Fixed Charge Models</t>
+    <t xml:space="preserve">Lab 2: Python Model Function</t>
   </si>
   <si>
     <t xml:space="preserve">Assign Homework 3 on Logical Constraints</t>
@@ -129,7 +131,7 @@
     <t xml:space="preserve">Lab2, HW3</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab 3: Python Model Functions</t>
+    <t xml:space="preserve">Lab 3: Fixed Charge Models</t>
   </si>
   <si>
     <t xml:space="preserve">Review Day</t>
@@ -560,7 +562,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
